--- a/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivo.xlsx
+++ b/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Documents\Git\Leaf\Documents\RR\ExternalDocuments\PianoDiProgetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Leaf\Documents\RR\ExternalDocuments\PianoDiProgetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -406,11 +406,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -490,11 +518,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -574,11 +630,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -658,11 +742,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -742,11 +854,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -826,11 +966,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -905,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-308435472"/>
-        <c:axId val="-308444720"/>
+        <c:axId val="98851832"/>
+        <c:axId val="125995976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-308435472"/>
+        <c:axId val="98851832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,8 +1108,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -952,7 +1120,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-308444720"/>
+        <c:crossAx val="125995976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-308444720"/>
+        <c:axId val="125995976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,8 +1167,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1011,7 +1179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-308435472"/>
+        <c:crossAx val="98851832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,11 +1200,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1048,16 +1216,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16266776027996502"/>
-          <c:y val="0.8616892680081657"/>
-          <c:w val="0.67466447944007002"/>
-          <c:h val="0.12442184310294546"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,8 +1233,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1150,13 +1309,39 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1165,13 +1350,39 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1180,13 +1391,39 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1195,13 +1432,39 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1210,13 +1473,39 @@
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1225,13 +1514,39 @@
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1254,8 +1569,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1276,14 +1591,13 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1384,11 +1698,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1474,13 +1788,39 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1489,13 +1829,39 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1504,13 +1870,39 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1519,13 +1911,39 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1534,13 +1952,39 @@
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1549,13 +1993,39 @@
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1578,8 +2048,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1600,14 +2070,13 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1710,13 +2179,39 @@
                   <c:idx val="0"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="110000"/>
+                            <a:satMod val="105000"/>
+                            <a:tint val="67000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="103000"/>
+                            <a:tint val="73000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="109000"/>
+                            <a:tint val="81000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="accent1">
+                          <a:shade val="95000"/>
+                        </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1725,13 +2220,39 @@
                   <c:idx val="1"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="110000"/>
+                            <a:satMod val="105000"/>
+                            <a:tint val="67000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="103000"/>
+                            <a:tint val="73000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="109000"/>
+                            <a:tint val="81000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="accent2">
+                          <a:shade val="95000"/>
+                        </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1740,13 +2261,39 @@
                   <c:idx val="2"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent3">
+                            <a:lumMod val="110000"/>
+                            <a:satMod val="105000"/>
+                            <a:tint val="67000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent3">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="103000"/>
+                            <a:tint val="73000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent3">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="109000"/>
+                            <a:tint val="81000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="accent3">
+                          <a:shade val="95000"/>
+                        </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1755,13 +2302,39 @@
                   <c:idx val="3"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent4">
+                            <a:lumMod val="110000"/>
+                            <a:satMod val="105000"/>
+                            <a:tint val="67000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent4">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="103000"/>
+                            <a:tint val="73000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent4">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="109000"/>
+                            <a:tint val="81000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="accent4">
+                          <a:shade val="95000"/>
+                        </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1770,13 +2343,39 @@
                   <c:idx val="4"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent5">
+                            <a:lumMod val="110000"/>
+                            <a:satMod val="105000"/>
+                            <a:tint val="67000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent5">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="103000"/>
+                            <a:tint val="73000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent5">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="109000"/>
+                            <a:tint val="81000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="accent5">
+                          <a:shade val="95000"/>
+                        </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1785,13 +2384,39 @@
                   <c:idx val="5"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="110000"/>
+                            <a:satMod val="105000"/>
+                            <a:tint val="67000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="103000"/>
+                            <a:tint val="73000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="105000"/>
+                            <a:satMod val="109000"/>
+                            <a:tint val="81000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="accent6">
+                          <a:shade val="95000"/>
+                        </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1814,8 +2439,8 @@
                         <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
+                              <a:lumMod val="65000"/>
+                              <a:lumOff val="35000"/>
                             </a:schemeClr>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
@@ -1836,14 +2461,13 @@
                   <c:showLeaderLines val="1"/>
                   <c:leaderLines>
                     <c:spPr>
-                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:ln w="9525">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="35000"/>
                             <a:lumOff val="65000"/>
                           </a:schemeClr>
                         </a:solidFill>
-                        <a:round/>
                       </a:ln>
                       <a:effectLst/>
                     </c:spPr>
@@ -1949,8 +2573,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2120,18 +2744,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="301">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2139,8 +2763,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2161,7 +2785,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2177,7 +2801,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2185,8 +2809,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2220,36 +2844,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2261,30 +2911,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2301,20 +2954,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2324,7 +2975,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2333,14 +2984,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2349,17 +2999,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2368,17 +3018,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2387,21 +3036,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2420,17 +3063,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2439,17 +3081,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2458,17 +3100,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2478,8 +3119,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2489,7 +3130,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2497,7 +3138,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2506,10 +3147,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2517,17 +3169,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2537,27 +3189,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2567,8 +3218,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2578,20 +3229,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2601,8 +3251,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2612,31 +3262,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2644,8 +3288,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2666,7 +3310,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2690,8 +3334,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2725,50 +3369,51 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2780,30 +3425,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2820,20 +3468,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2843,7 +3489,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2852,14 +3498,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2868,17 +3513,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2887,17 +3532,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2906,21 +3550,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2939,17 +3577,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2958,17 +3595,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2977,17 +3614,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2997,8 +3633,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3008,7 +3644,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3016,7 +3652,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3025,10 +3661,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3036,17 +3683,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3056,27 +3703,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3086,8 +3732,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3097,20 +3743,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3120,8 +3765,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3131,31 +3776,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3163,8 +3802,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3185,7 +3824,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3209,8 +3848,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3244,50 +3883,51 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3299,30 +3939,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3339,20 +3982,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3362,7 +4003,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3371,14 +4012,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3387,17 +4027,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3406,17 +4046,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3425,21 +4064,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3458,17 +4091,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3477,17 +4109,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3496,17 +4128,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3516,8 +4147,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3527,7 +4158,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3535,7 +4166,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3544,10 +4175,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3555,17 +4197,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3575,27 +4217,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3605,8 +4246,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3616,20 +4257,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3639,8 +4279,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3650,14 +4290,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4022,7 +4656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
